--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E92C8-34E0-43DD-A804-AEA3342875E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E06992-7EA9-4F53-BD58-7AD1ACFA8420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A42A735-9DBE-4B7D-B2D8-387A9C7201C9}"/>
   </bookViews>
@@ -166,6 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,55 +335,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +702,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -712,45 +712,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>45132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -758,17 +758,17 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1002</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1223</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>B6+C6</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <f>D6/$D$13</f>
         <v>0.11216413772243787</v>
       </c>
@@ -777,18 +777,18 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>138</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>166</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" ref="D7:D13" si="0">B7+C7</f>
+      <c r="D7" s="10">
+        <f t="shared" ref="D7:D12" si="0">B7+C7</f>
         <v>304</v>
       </c>
-      <c r="E7" s="17">
-        <f t="shared" ref="E7:E13" si="1">D7/$D$13</f>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:E12" si="1">D7/$D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
     </row>
@@ -796,17 +796,17 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>1494</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>1577</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="19">
         <f t="shared" si="1"/>
         <v>0.15481171548117154</v>
       </c>
@@ -815,17 +815,17 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>3571</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>3746</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="19">
         <f t="shared" si="1"/>
         <v>0.36885617784947322</v>
       </c>
@@ -834,17 +834,17 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1468</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>1094</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="19">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
@@ -853,66 +853,66 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>1812</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>1927</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>427</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>192</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <f>SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
+      <c r="D13" s="13">
+        <f>SUM(D6:D12)</f>
         <v>19837</v>
       </c>
       <c r="E13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C13:E13" si="2">SUM(E6:E12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
     </row>
